--- a/PUBMED_ext.Review.xlsx
+++ b/PUBMED_ext.Review.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doeringe\Documents\Brain Age\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doeringe\Documents\BrainAge\PET_MRI_age\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4845,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7661,11 +7661,11 @@
         <v>0.67</v>
       </c>
       <c r="Q70">
-        <f>P70/M70</f>
+        <f t="shared" ref="Q70:Q75" si="2">P70/M70</f>
         <v>1.0307692307692308E-2</v>
       </c>
       <c r="R70">
-        <f>IF(ISNUMBER(Q70),Q70,"")</f>
+        <f t="shared" ref="R70:R75" si="3">IF(ISNUMBER(Q70),Q70,"")</f>
         <v>1.0307692307692308E-2</v>
       </c>
       <c r="T70" t="s">
@@ -7719,11 +7719,11 @@
         <v>2.92</v>
       </c>
       <c r="Q71" t="e">
-        <f>P71/M71</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R71" t="str">
-        <f>IF(ISNUMBER(Q71),Q71,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S71">
@@ -7784,11 +7784,11 @@
         <v>4</v>
       </c>
       <c r="Q72">
-        <f>P72/M72</f>
+        <f t="shared" si="2"/>
         <v>7.0175438596491224E-2</v>
       </c>
       <c r="R72">
-        <f>IF(ISNUMBER(Q72),Q72,"")</f>
+        <f t="shared" si="3"/>
         <v>7.0175438596491224E-2</v>
       </c>
       <c r="S72">
@@ -7848,11 +7848,11 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="Q73">
-        <f>P73/M73</f>
+        <f t="shared" si="2"/>
         <v>0.14727272727272728</v>
       </c>
       <c r="R73">
-        <f>IF(ISNUMBER(Q73),Q73,"")</f>
+        <f t="shared" si="3"/>
         <v>0.14727272727272728</v>
       </c>
       <c r="S73" t="s">
@@ -7913,11 +7913,11 @@
         <v>5.28</v>
       </c>
       <c r="Q74">
-        <f>P74/M74</f>
+        <f t="shared" si="2"/>
         <v>7.6521739130434779E-2</v>
       </c>
       <c r="R74">
-        <f>IF(ISNUMBER(Q74),Q74,"")</f>
+        <f t="shared" si="3"/>
         <v>7.6521739130434779E-2</v>
       </c>
       <c r="S74">
@@ -7972,11 +7972,11 @@
         <v>5.9</v>
       </c>
       <c r="Q75">
-        <f>P75/M75</f>
+        <f t="shared" si="2"/>
         <v>9.8333333333333342E-2</v>
       </c>
       <c r="R75">
-        <f>IF(ISNUMBER(Q75),Q75,"")</f>
+        <f t="shared" si="3"/>
         <v>9.8333333333333342E-2</v>
       </c>
     </row>
@@ -8028,11 +8028,11 @@
         <v>5.01</v>
       </c>
       <c r="Q76">
-        <f t="shared" ref="Q76:Q84" si="2">P76/M76</f>
+        <f t="shared" ref="Q76:Q84" si="4">P76/M76</f>
         <v>6.958333333333333E-2</v>
       </c>
       <c r="R76">
-        <f t="shared" ref="R76:R84" si="3">IF(ISNUMBER(Q76),Q76,"")</f>
+        <f t="shared" ref="R76:R84" si="5">IF(ISNUMBER(Q76),Q76,"")</f>
         <v>6.958333333333333E-2</v>
       </c>
       <c r="S76" t="s">
@@ -8086,11 +8086,11 @@
         <v>3.1</v>
       </c>
       <c r="Q77" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S77" t="s">
@@ -8147,11 +8147,11 @@
         <v>7.8</v>
       </c>
       <c r="Q78" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S78" t="s">
@@ -8215,11 +8215,11 @@
         <v>33</v>
       </c>
       <c r="Q79" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="R79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S79" t="s">
@@ -8280,11 +8280,11 @@
         <v>256</v>
       </c>
       <c r="Q80" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S80" t="s">
@@ -8341,11 +8341,11 @@
         <v>5.08</v>
       </c>
       <c r="Q81" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S81" t="s">
@@ -8406,11 +8406,11 @@
         <v>5.83</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0240963855421681E-2</v>
       </c>
       <c r="R82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.0240963855421681E-2</v>
       </c>
       <c r="S82" s="11" t="s">
@@ -8471,11 +8471,11 @@
         <v>374</v>
       </c>
       <c r="Q83" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="R83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S83" t="s">
@@ -8533,11 +8533,11 @@
         <v>33</v>
       </c>
       <c r="Q84" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="R84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S84" t="s">
@@ -8685,11 +8685,11 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="Q87">
-        <f t="shared" ref="Q87:Q95" si="4">P87/M87</f>
+        <f t="shared" ref="Q87:Q95" si="6">P87/M87</f>
         <v>5.1392405063291131E-2</v>
       </c>
       <c r="R87">
-        <f t="shared" ref="R87:R95" si="5">IF(ISNUMBER(Q87),Q87,"")</f>
+        <f t="shared" ref="R87:R95" si="7">IF(ISNUMBER(Q87),Q87,"")</f>
         <v>5.1392405063291131E-2</v>
       </c>
       <c r="S87" t="s">
@@ -8743,11 +8743,11 @@
         <v>81</v>
       </c>
       <c r="Q88" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S88" t="s">
@@ -8811,11 +8811,11 @@
         <v>6.4</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.4395280235988213E-2</v>
       </c>
       <c r="R89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.4395280235988213E-2</v>
       </c>
       <c r="S89" s="6" t="s">
@@ -8876,11 +8876,11 @@
         <v>96</v>
       </c>
       <c r="Q90" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="R90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S90" s="6" t="s">
@@ -8940,11 +8940,11 @@
         <v>6.92</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.1052631578947371E-2</v>
       </c>
       <c r="R91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.1052631578947371E-2</v>
       </c>
       <c r="S91" t="s">
@@ -9003,11 +9003,11 @@
         <v>5.55</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="R92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="S92" s="5" t="s">
@@ -9067,11 +9067,11 @@
         <v>3.59</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11966666666666666</v>
       </c>
       <c r="R93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11966666666666666</v>
       </c>
       <c r="S93" t="s">
@@ -9132,11 +9132,11 @@
         <v>2.87</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.8965517241379308E-2</v>
       </c>
       <c r="R94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.8965517241379308E-2</v>
       </c>
       <c r="S94" t="s">
@@ -9199,11 +9199,11 @@
         <v>3.7</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.021739130434783E-2</v>
       </c>
       <c r="R95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.021739130434783E-2</v>
       </c>
       <c r="S95" t="s">
@@ -9309,11 +9309,11 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="Q97">
-        <f t="shared" ref="Q97:Q104" si="6">P97/M97</f>
+        <f t="shared" ref="Q97:Q104" si="8">P97/M97</f>
         <v>6.9722222222222213E-2</v>
       </c>
       <c r="R97">
-        <f t="shared" ref="R97:R104" si="7">IF(ISNUMBER(Q97),Q97,"")</f>
+        <f t="shared" ref="R97:R104" si="9">IF(ISNUMBER(Q97),Q97,"")</f>
         <v>6.9722222222222213E-2</v>
       </c>
       <c r="S97" t="s">
@@ -9371,11 +9371,11 @@
         <v>6.94</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16523809523809524</v>
       </c>
       <c r="R98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16523809523809524</v>
       </c>
       <c r="S98" t="s">
@@ -9437,11 +9437,11 @@
         <v>264</v>
       </c>
       <c r="Q99" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S99" t="s">
@@ -9498,11 +9498,11 @@
         <v>298</v>
       </c>
       <c r="Q100" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R100" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S100" s="5" t="s">
@@ -9557,11 +9557,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q101" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S101" t="s">
@@ -9619,11 +9619,11 @@
         <v>3.08</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.162162162162162E-2</v>
       </c>
       <c r="R102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.162162162162162E-2</v>
       </c>
       <c r="S102" t="s">
@@ -9681,11 +9681,11 @@
         <v>3.97</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.2708333333333342E-2</v>
       </c>
       <c r="R103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.2708333333333342E-2</v>
       </c>
       <c r="S103" t="s">
@@ -9739,11 +9739,11 @@
         <v>4.7</v>
       </c>
       <c r="Q104" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R104" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S104" t="s">
@@ -10274,7 +10274,7 @@
         <v>2012</v>
       </c>
       <c r="G116">
-        <f t="shared" ref="G116:G125" si="8">COUNTIF($G$42:$G$112,F116)</f>
+        <f t="shared" ref="G116:G125" si="10">COUNTIF($G$42:$G$112,F116)</f>
         <v>1</v>
       </c>
       <c r="H116" t="s">
@@ -10297,7 +10297,7 @@
         <v>2013</v>
       </c>
       <c r="G117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H117" t="s">
@@ -10316,7 +10316,7 @@
         <v>2014</v>
       </c>
       <c r="G118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H118" t="s">
@@ -10332,7 +10332,7 @@
         <v>2015</v>
       </c>
       <c r="G119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H119" t="s">
@@ -10348,7 +10348,7 @@
         <v>2016</v>
       </c>
       <c r="G120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H120" t="s">
@@ -10364,7 +10364,7 @@
         <v>2017</v>
       </c>
       <c r="G121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H121" t="s">
@@ -10380,7 +10380,7 @@
         <v>2018</v>
       </c>
       <c r="G122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
         <v>2019</v>
       </c>
       <c r="G123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
         <v>2020</v>
       </c>
       <c r="G124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="H124" t="s">
@@ -10414,7 +10414,7 @@
         <v>2021</v>
       </c>
       <c r="G125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H125" t="s">
